--- a/Day12/busan_starbuks.xlsx
+++ b/Day12/busan_starbuks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">금정남산동DT  </t>
+          <t>금정남산동DT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -484,6 +484,3678 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>부산광역시 금정구 중앙대로 1989 (남산동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>금정구청DT</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>35.238784</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>129.092964</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>부산광역시 금정구 중앙대로 1730 (부곡동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>온천장역DT</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>35.224006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>129.08656</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>부산광역시 금정구 식물원로 13 (장전동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>부산대정문</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>35.232107</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>129.084565</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>부산광역시 금정구 부산대학로64번길 12 (장전동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>부산대역</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>35.230722</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>129.088165</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>부산광역시 금정구 장전로12번길 64, 1~4층 (장전동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>금정이마트</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>35.250184</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>129.090774</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>부산광역시 금정구 중앙대로1841번길 24 (구서동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>금정구서</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>35.24699</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>129.0887563</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>부산광역시 금정구 금강로 441 (구서동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>부산서동</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>35.21468792992495</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>129.10563510007157</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>부산광역시 금정구 서동로 173 (서동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>용호동W스퀘어</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>35.13388964658187</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>129.11281307495818</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>부산광역시 남구 분포로 145 (용호동) 더블유스퀘어동 1019호,1020호,1021호,2011호 2012호</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>동명대DT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>35.12311959047579</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>129.09901642703608</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>부산광역시 남구 신선로 423 (용당동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BIFC Mall</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>35.146436</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>129.065882</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>부산광역시 남구 문현금융로 40 (문현동) 부산국제금융센터</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>부산대연역</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>35.135032</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>129.093041</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>부산광역시 남구 수영로 240-1, 1층 (대연동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>경성대</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>35.137345553736964</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>129.10063775537583</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>부산광역시 남구 수영로 312 (대연동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>부산대연못골</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>35.1360684</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>129.0919586</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>부산광역시 남구 못골로 87 (대연동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>부산역라마다</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>35.11445</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>129.040309</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>부산광역시 동구 중앙대로196번길 10 (초량동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>부산역아스티</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>35.116741</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>129.042101</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>부산광역시 동구 중앙대로214번길 7-8 (초량동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>부산역</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>35.11631935</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>129.0407837</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>부산광역시 동구 중앙대로 216 (초량동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>범일동일타워</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>35.138915</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>129.063487</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>부산광역시 동구 조방로 14 (범일동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>서면중앙대로R</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>35.1530083</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>129.0596228</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>reserve</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>부산광역시 부산진구 중앙대로 672 (부전동) 1층 2층</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>서면로R</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>35.155255</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>129.057651</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>reserve</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>부산광역시 부산진구 서면로 49-1 (부전동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>서면NC</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>35.157036</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>129.063029</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>부산광역시 부산진구 동천로 92 (전포동) NC백화점 1층</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>양정역</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>35.1700743</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>129.06926269999997</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>부산광역시 부산진구 중앙대로 894 (양정동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>동의대역</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>35.155057</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>129.036202</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>부산광역시 부산진구 가야대로 589 (가야제1동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>부산개금역</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>35.152899</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>129.0226067</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>부산광역시 부산진구 가야대로 462 (개금동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>서면전포역</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>35.154345</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>129.063631</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>부산광역시 부산진구 전포대로199번길 27 (전포동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>부산서면중앙로</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>35.155521</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>129.058883</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>부산광역시 부산진구 중앙대로 701 (부전동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>서면서전로</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>35.157995</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>129.061744</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>부산광역시 부산진구 서전로 19 (부전동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>부산서면</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>35.154098</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>129.061562</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>부산광역시 부산진구 중앙대로692번길 46-10 (부전동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>서면역</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>35.1579735</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>129.05999229999998</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>부산광역시 부산진구 서전로 1 (부전동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>부전역</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>35.16183</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>129.061933</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>부산광역시 부산진구 중앙대로 777, 서면호텔 복합시설1,2층 (부전동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>서면센트럴스퀘어</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>35.15151</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>129.061139</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>부산광역시 부산진구 중앙대로666번길 50 (부전동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>서면메디컬거리</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>35.157961</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>129.05740949999995</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>부산광역시 부산진구 가야대로 783-1, 1층 (부전동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>서면중앙</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>35.156863</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>129.058076</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>부산광역시 부산진구 서면로68번길 1 (부전동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>서면트레이더스</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>35.163918</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>129.052684</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>부산광역시 부산진구 시민공원로 31 (부암동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>초읍대공원</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>35.1828193069829</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>129.04748360769</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>부산광역시 부산진구 성지곡로 6 (초읍동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>서면엠디엠타워</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>35.150017</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>129.058489</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>부산광역시 부산진구 중앙대로 639 (범천동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>서면문화로</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>35.159056</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>129.057527</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>부산광역시 부산진구 서면문화로 10 (부전동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>부산덕천역</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>35.210787</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>129.008358</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>부산광역시 북구 만덕대로 30 (덕천동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>부산화명역</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>35.233829</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>129.013106</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>부산광역시 북구 금곡대로285번길 5 (화명동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>화명강변DT</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>35.216972</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>129.004611</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>부산광역시 북구 금곡대로77 (덕천동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>부산구남역DT</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>35.1982412867577</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>128.996280148597</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>부산광역시 북구 백양대로 1040 (구포동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>부산만덕DT</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>35.213166</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>129.039764</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>부산광역시 북구 만덕대로 323 (만덕동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>사상주례DT</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>35.154847</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>128.996302</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>부산광역시 사상구 백양대로 520 (주례동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>동서대DT</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>35.150863</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>129.010026</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>부산광역시 사상구 가야대로 338 (주례동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>사상역</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>35.164003</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>128.983473</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>부산광역시 사상구 사상로 211 (괘법동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>부산사상로</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>35.1629709567761</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>128.984586499721</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>부산광역시 사상구 사상로 200 (괘법동) 105호</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>삼락강변DT</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>35.17654467870461</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>128.9766669978161</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>부산광역시 사상구 낙동대로 1306 (삼락동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>사상엄궁DT</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>35.127533</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>128.969588</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>부산광역시 사상구 낙동대로 744 (엄궁동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>사상이마트</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>35.1642292</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>128.9789053</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>부산광역시 사상구 광장로 17 (괘법동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>다대포비치</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>35.049404</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>128.963569</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>부산광역시 사하구 다대로 714 (다대동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>부산하단</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>35.1053448</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>128.9688718</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>부산광역시 사하구 낙동대로 455 (하단동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>다대포DT</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>35.060973</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>128.975257</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>부산광역시 사하구 다대로 493 (다대동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>을숙도강변DT</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>35.115260</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>128.959578</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>부산광역시 사하구 하신번영로 381-6 (하단동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>부산괴정역</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>35.098451</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>128.994352</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>부산광역시 사하구 사하로186번길 6 (괴정동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>하단중앙</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>35.106522</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>128.966103</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>부산광역시 사하구 낙동남로 1411 (하단동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>사하장림DT</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>35.0849337</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>128.9802207</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>부산광역시 사하구 을숙도대로 682 (장림동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>부산교대역DT</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>35.1990004</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>129.0789319</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>부산광역시 연제구 중앙대로 1250 (거제동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>연산시티타워</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>35.188225</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>129.080949</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>부산광역시 연제구 중앙대로 1125 (연산동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>부산교대역</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>35.1964682</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>129.08097929999997</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>부산광역시 연제구 명륜로 3 (거제제1동) 한양프라자</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>부산연산역</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>35.1869475</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>129.0833335</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>부산광역시 연제구 반송로 20 (연산동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>연산중앙로</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>35.185469</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>129.08067</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>부산광역시 연제구 중앙대로 1091 (연산동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>부산교대</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>35.195708</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>129.077505</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>부산광역시 연제구 교대로 20-2 (거제동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>연산트레이더스</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>35.1854506</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>129.1121467</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>부산광역시 연제구 좌수영로 241 연산동</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>부산시청</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>35.18159</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>129.07841</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>부산광역시 연제구 중앙천로 93 (연산동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>연제이마트</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>35.1758702930247</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>129.081266439005</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>부산광역시 연제구 연수로 89 (연산동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>영도청학DT</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>35.093885</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>129.065171</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>부산광역시 영도구 태종로 373 (청학동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>영도대교</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>35.094678</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>129.037184</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>부산광역시 영도구 태종로 39 (대교동1가)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>부산광복로R</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>35.100123</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>129.031422</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>reserve</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>부산광역시 중구 광복중앙로 8-2 (광복동3가)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>자갈치역</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>35.098378</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>129.029716</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>부산광역시 중구 구덕로 54-1 (남포동5가)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>국제시장</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>35.102783</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>129.028601</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>부산광역시 중구 대청로 80 (대청동3가)</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>부산중앙역</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>35.1050552</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>129.0359604</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>부산광역시 중구 중앙대로81번길 2 (중앙동4가)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>BIFF광장</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>35.0989623</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>129.02805280000007</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>부산광역시 중구 비프광장로 25 (남포동3가)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>남포동역</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>35.098311</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>129.035151</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>부산광역시 중구 구덕로 4, 1~2층 (광복동1가)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>기장역DT</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>35.2421513</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>129.2201170</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">부산광역시 기장군 기장읍 기장대로 527 </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>동부산DT</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>35.184073</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>129.210875</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">부산광역시 기장군 기장읍 기장해안로 56 </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>부산정관</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>35.321336</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>129.176983</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">부산광역시 기장군 정관읍 정관로 579 </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>부산P.아울렛</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>35.325248</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>129.236612</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>부산광역시 기장군 정관로 1133 (175호)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>기장일광DT</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>35.25765220306631</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>129.22554315372642</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">부산광역시 기장군 일광읍 기장대로 706 </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>동부산테마파크</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>35.19392038207416</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>129.21399989693612</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">부산광역시 기장군 기장읍 동부산관광로 34 </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>광안수변공원</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>35.153325135368405</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>129.12454026368186</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>부산광역시 수영구 민락수변로 29 (민락동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>수영역</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>35.16573717329124</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>129.1145750821663</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>부산광역시 수영구 수영로 671 (광안동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>금련산역</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>35.147170</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>129.110500</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>부산광역시 수영구 수영로464번길 6 (남천동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>광안비치</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>35.15317424344426</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>129.1178487484164</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>부산광역시 수영구 광안로62번길 39 (광안동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>수영망미DT</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>35.177411</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>129.107428</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>부산광역시 수영구 과정로 68 (망미동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>광안리</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>35.15502782</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>129.1208407</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>부산광역시 수영구 광안해변로 247 (민락동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>남천</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>35.14830649</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>129.1141711</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>부산광역시 수영구 남천바다로 38 (남천동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>밀락더마켓</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>35.15400258151108</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>129.12727354079507</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>부산광역시 수영구 민락수변로17번길 56 (민락동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>스타필드명지</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>35.0934683</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>128.9174322</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>부산광역시 강서구 명지국제6로 168 스타필드 명지 1층</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>명지강변DT</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>35.1026237</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>128.9294804</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>부산광역시 강서구 르노삼성대로 620 (명지동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>명지국제신도시</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>35.0979416</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>128.9199180</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>부산광역시 강서구 명지국제5로 42 (명지동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>명지오션시티</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>35.084043</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>128.903135</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>부산광역시 강서구 명지오션시티11로 66 (명지동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>명지퍼스트월드</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>35.097486176649014</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>128.90749034450783</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>부산광역시 강서구 명지국제7로 37 (명지동, 더샵 명지퍼스트월드 2단지)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>동래역</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>35.205640</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>129.080038</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">부산광역시 동래구 충렬대로181번길 42 </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>명륜역</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>35.212443</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>129.078378</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">부산광역시 동래구 동래로 25 </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>사직구장</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>35.195954</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>129.061289</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>generalWT</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>부산광역시 동래구 사직북로 4 (사직동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>부산안락DT</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>35.1958595</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>129.10695409999994</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>부산광역시 동래구 충렬대로 446 (안락동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>동래미남DT</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>35.2072439</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>129.0719664</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>부산광역시 동래구 충렬대로 101 (온천동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>부산사직</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>35.198093</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>129.060473</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>부산광역시 동래구 사직북로 24 (사직동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>부산온천장역</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>35.221082</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>129.085506</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>부산광역시 동래구 중앙대로 1523, SK허브스카이위아아파트 1층 (온천동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>부산동래</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>35.203031</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>129.080982</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>부산광역시 동래구 충렬대로 194 (명륜동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>동래허심청</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>35.22085136198146</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>129.08274705537875</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>부산광역시 동래구 온천장로107번길 32 (온천동) 1층</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>부산송도해수욕장</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>35.077315</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>129.017874</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>부산광역시 서구 송도해변로 97(101,102,201) (암남동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>부민사거리</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>35.103629</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>129.02022</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>부산광역시 서구 구덕로 212 (부민동1가)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>부산동대신역</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>35.112688</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>129.016686</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>부산광역시 서구 구덕로322번길 7 (동대신동3가)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>동아대병원</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>35.1195185</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>129.0172766</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>부산광역시 서구 동대로 8 (동대신동3가)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>더해운대R</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>35.158371</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>129.153065</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>reserve</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 해운대해변로 197 (우동, 해운대경동제이드아파트)</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>수영강변DT</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>35.203889</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>129.119336</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 수영강변대로 516 (반여동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>센텀파크</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>35.178759</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>129.122541</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 센텀중앙로 145 (재송동, 더샵센텀파크1차아파트)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>해운대역</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>35.163246</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>129.159547</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 구남로 9 (우동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>부산재송DT</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>35.181271</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>129.12405</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 해운대로 189 (재송동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>해운대</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>35.159965</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>129.162124</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>generalWT</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 구남로 49 (중동) 101호</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>센텀로</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>35.1678356</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>129.13153920000002</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 센텀2로 10 (우동) 센텀메디컬센타 1층 스타벅스 센텀로점</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>센텀신세계B1</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>35.1687027</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>129.1297466</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 센텀남대로 35 (우동) 센텀시티 신세계UEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>해운대달맞이DT</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>35.1615043</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>129.1710436</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>generalDT</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 달맞이길 57 (중동) 1~3층</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>센텀그린타워</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>35.174668</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>129.126697</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 센텀중앙로 78 (우동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>부산송정비치</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>35.1807279</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>129.20227690000001</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 송정해변로 36 (송정동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>장산역</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>35.16914054</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>129.1766584</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 해운대로 802 (좌동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>하버타운</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>35.15967926</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>129.1595078</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 해운대해변로 257 (우동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>벡스코</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>35.16884711</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>129.1354444</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 APEC로 55, 벡스코내 (우동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>베네시티</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>35.1582971</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>129.1501316</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 해운대해변로 163 (우동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>팔레드시즈</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>35.1601225</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>129.1665774</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 해운대해변로298번길 24, 팔래드시즈 1-3호 (중동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>블루스퀘어</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>35.17229566</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>129.1755924</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 좌동로 96 (좌동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>센텀시티역</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>35.169925</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>129.132271</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 센텀동로 9, 트럼프월드센텀아파트 1층 (우동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>제니스스퀘어</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>35.156657</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>129.144091</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 마린시티2로 33, 제니스스퀘어 (우동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>마린시티아이파크</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>35.1569194</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>129.1434995</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 마린시티2로 38 (우동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>해운대달맞이</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>35.157925</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>129.182307</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 달맞이길 189 (중동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>해운대이마트</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>35.166029</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>129.167397</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 좌동순환로 511 (중동) 1층</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>센텀드림월드</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>35.167027</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>129.132829</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 센텀2로 25, 센텀드림월드 1층 (우동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>센텀KNN</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>35.171765</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>129.128934</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 센텀서로 30 (우동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>월드마크센텀</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>35.17137</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>129.131112</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 센텀동로 25, 1층 (우동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>해운대NC</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>35.1705843</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>129.1770927</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 해운대로 813 (좌동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>해운대좌동</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>35.1775937</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>129.1755895</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 좌동순환로 178 (좌동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>해운대 엑스더스카이</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>35.1599648</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>129.1697564</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">부산광역시 해운대구 달맞이길30 </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>센텀신세계3F</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>35.16906348</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>129.12906568</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 센텀남대로 35 (우동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>해운대중동역</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>35.1671846</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>129.1678855</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 좌동순환로 6 (중동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>센텀몰1F</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>35.16981023</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>129.12778297</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 센텀4로 15 (우동)</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>그랜드조선 부산</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>35.1600338</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>129.1630512</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>부산광역시 해운대구 해운대해변로 292 (중동)</t>
         </is>
       </c>
     </row>
